--- a/biology/Médecine/Articulé_croisé/Articulé_croisé.xlsx
+++ b/biology/Médecine/Articulé_croisé/Articulé_croisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articul%C3%A9_crois%C3%A9</t>
+          <t>Articulé_croisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un articulé croisé est une forme de malocclusion dentaire où une dent a une position plus buccale ou linguale (plus proche de la joue ou de la langue) par rapport à sa dent antagoniste à l'arcade dentaire supérieure ou inférieure[1]. En d'autres termes, l'articulé croisé est un désalignement latéral des arcades dentaires.
-Les articulés croisés sont communément traités par un orthodontiste[2]. Le terme équivalent anglais est crossbite[3]. Le Termium donne également « occlusion croisée » comme équivalence[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un articulé croisé est une forme de malocclusion dentaire où une dent a une position plus buccale ou linguale (plus proche de la joue ou de la langue) par rapport à sa dent antagoniste à l'arcade dentaire supérieure ou inférieure. En d'autres termes, l'articulé croisé est un désalignement latéral des arcades dentaires.
+Les articulés croisés sont communément traités par un orthodontiste. Le terme équivalent anglais est crossbite. Le Termium donne également « occlusion croisée » comme équivalence.
 </t>
         </is>
       </c>
